--- a/Data/ProcessedData/dTot.xlsx
+++ b/Data/ProcessedData/dTot.xlsx
@@ -1349,6 +1349,50 @@
       <c r="AM6">
         <v>2</v>
       </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>Gaming_Go</t>
+        </is>
+      </c>
+      <c r="AO6">
+        <v>0.989583333333333</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0.95</v>
+      </c>
+      <c r="AS6">
+        <v>0.327971315789474</v>
+      </c>
+      <c r="AU6">
+        <v>0.32463225</v>
+      </c>
+      <c r="AV6">
+        <v>0.235483333333333</v>
+      </c>
+      <c r="AW6">
+        <v>0.9375</v>
+      </c>
+      <c r="AX6">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="AY6">
+        <v>0.3388465625</v>
+      </c>
+      <c r="AZ6">
+        <v>0.319787708333333</v>
+      </c>
+      <c r="BA6">
+        <v>5.03637566141667</v>
+      </c>
+      <c r="BB6">
+        <v>5.45249118175</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">

--- a/Data/ProcessedData/dTot.xlsx
+++ b/Data/ProcessedData/dTot.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB94"/>
+  <dimension ref="A1:BB95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15890,6 +15890,142 @@
         <v>9.541446208083331</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95">
+        <v>335</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>15</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>8</v>
+      </c>
+      <c r="AC95">
+        <v>26</v>
+      </c>
+      <c r="AD95">
+        <v>33</v>
+      </c>
+      <c r="AE95">
+        <v>48</v>
+      </c>
+      <c r="AF95">
+        <v>11</v>
+      </c>
+      <c r="AG95">
+        <v>10</v>
+      </c>
+      <c r="AH95">
+        <v>10</v>
+      </c>
+      <c r="AI95">
+        <v>11</v>
+      </c>
+      <c r="AJ95">
+        <v>6</v>
+      </c>
+      <c r="AK95">
+        <v>36</v>
+      </c>
+      <c r="AL95">
+        <v>20</v>
+      </c>
+      <c r="AM95">
+        <v>3</v>
+      </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>Gaming_Go</t>
+        </is>
+      </c>
+      <c r="AO95">
+        <v>0.90625</v>
+      </c>
+      <c r="AP95">
+        <v>0.75</v>
+      </c>
+      <c r="AQ95">
+        <v>0.9</v>
+      </c>
+      <c r="AR95">
+        <v>0.7666666666666671</v>
+      </c>
+      <c r="AS95">
+        <v>0.449699540229885</v>
+      </c>
+      <c r="AT95">
+        <v>0.331405</v>
+      </c>
+      <c r="AU95">
+        <v>0.488178796296296</v>
+      </c>
+      <c r="AV95">
+        <v>0.357932142857143</v>
+      </c>
+      <c r="AW95">
+        <v>1</v>
+      </c>
+      <c r="AX95">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="AY95">
+        <v>0.512641145833333</v>
+      </c>
+      <c r="AZ95">
+        <v>0.702919583333333</v>
+      </c>
+      <c r="BA95">
+        <v>1.936343965</v>
+      </c>
+      <c r="BB95">
+        <v>5.47377329041667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/ProcessedData/dTot.xlsx
+++ b/Data/ProcessedData/dTot.xlsx
@@ -1045,6 +1045,53 @@
       <c r="AM4">
         <v>1</v>
       </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Gaming_NoGo</t>
+        </is>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0.983333333333333</v>
+      </c>
+      <c r="AS4">
+        <v>0.335024166666667</v>
+      </c>
+      <c r="AU4">
+        <v>0.297839416666667</v>
+      </c>
+      <c r="AV4">
+        <v>0.236615</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>0.287246041666667</v>
+      </c>
+      <c r="BA4">
+        <v>0.310502604166667</v>
+      </c>
+      <c r="BB4">
+        <v>6.73611111108333</v>
+      </c>
+      <c r="BC4">
+        <v>5.80687830691667</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1822,6 +1869,56 @@
       <c r="AM9">
         <v>3</v>
       </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>Gaming_Go</t>
+        </is>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0.875</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0.883333333333333</v>
+      </c>
+      <c r="AS9">
+        <v>0.286106510416667</v>
+      </c>
+      <c r="AT9">
+        <v>0.234603333333333</v>
+      </c>
+      <c r="AU9">
+        <v>0.28953925</v>
+      </c>
+      <c r="AV9">
+        <v>0.226597142857143</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>0.405513333333333</v>
+      </c>
+      <c r="BA9">
+        <v>0.393724791666667</v>
+      </c>
+      <c r="BB9">
+        <v>6.089065693</v>
+      </c>
+      <c r="BC9">
+        <v>6.3756616785</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -2273,6 +2370,50 @@
       <c r="AM12">
         <v>13</v>
       </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>Gaming_NoGo</t>
+        </is>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0.352527916666667</v>
+      </c>
+      <c r="AU12">
+        <v>0.350328416666667</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0.410458125</v>
+      </c>
+      <c r="BA12">
+        <v>0.411563125</v>
+      </c>
+      <c r="BB12">
+        <v>5.80158730158333</v>
+      </c>
+      <c r="BC12">
+        <v>6.98148148141667</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -5208,6 +5349,56 @@
       <c r="AM30">
         <v>13</v>
       </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>Gaming_Go</t>
+        </is>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>0.983333333333333</v>
+      </c>
+      <c r="AS30">
+        <v>0.367744114583333</v>
+      </c>
+      <c r="AT30">
+        <v>0.266405</v>
+      </c>
+      <c r="AU30">
+        <v>0.346091</v>
+      </c>
+      <c r="AV30">
+        <v>0.305695</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="AY30">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="AZ30">
+        <v>0.3968984375</v>
+      </c>
+      <c r="BA30">
+        <v>0.428050520833333</v>
+      </c>
+      <c r="BB30">
+        <v>3.63862537191667</v>
+      </c>
+      <c r="BC30">
+        <v>7.4890718005</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -8462,6 +8653,53 @@
       <c r="AM49">
         <v>2</v>
       </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>Gaming_NoGo</t>
+        </is>
+      </c>
+      <c r="AO49">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>0.983333333333333</v>
+      </c>
+      <c r="AR49">
+        <v>0.983333333333333</v>
+      </c>
+      <c r="AS49">
+        <v>0.396420217391304</v>
+      </c>
+      <c r="AU49">
+        <v>0.416640254237288</v>
+      </c>
+      <c r="AV49">
+        <v>0.7432</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="AY49">
+        <v>0.9375</v>
+      </c>
+      <c r="AZ49">
+        <v>0.389817291666667</v>
+      </c>
+      <c r="BA49">
+        <v>0.3927171875</v>
+      </c>
+      <c r="BB49">
+        <v>6.453388373</v>
+      </c>
+      <c r="BC49">
+        <v>8.30483070425</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -11005,6 +11243,50 @@
       <c r="AM64">
         <v>14</v>
       </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>Gaming_NoGo</t>
+        </is>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+      <c r="AS64">
+        <v>0.315458333333333</v>
+      </c>
+      <c r="AU64">
+        <v>0.326766666666667</v>
+      </c>
+      <c r="AW64">
+        <v>1</v>
+      </c>
+      <c r="AX64">
+        <v>1</v>
+      </c>
+      <c r="AY64">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="AZ64">
+        <v>0.370604166666667</v>
+      </c>
+      <c r="BA64">
+        <v>0.3650625</v>
+      </c>
+      <c r="BB64">
+        <v>4.87764550258333</v>
+      </c>
+      <c r="BC64">
+        <v>5.60019841258333</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -12690,6 +12972,56 @@
       <c r="AM74">
         <v>4</v>
       </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>Gaming_NoGo</t>
+        </is>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>0.989583333333333</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>0.983333333333333</v>
+      </c>
+      <c r="AS74">
+        <v>0.365041666666667</v>
+      </c>
+      <c r="AT74">
+        <v>0.365</v>
+      </c>
+      <c r="AU74">
+        <v>0.385083333333333</v>
+      </c>
+      <c r="AV74">
+        <v>0.337</v>
+      </c>
+      <c r="AW74">
+        <v>1</v>
+      </c>
+      <c r="AX74">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="AY74">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="AZ74">
+        <v>0.380104166666667</v>
+      </c>
+      <c r="BA74">
+        <v>0.373583333333333</v>
+      </c>
+      <c r="BB74">
+        <v>4.694664903</v>
+      </c>
+      <c r="BC74">
+        <v>5.34722222216667</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -13328,6 +13660,56 @@
       <c r="AM78">
         <v>12</v>
       </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>Gaming_Go</t>
+        </is>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>0.85</v>
+      </c>
+      <c r="AS78">
+        <v>0.386094270833333</v>
+      </c>
+      <c r="AT78">
+        <v>0.36025</v>
+      </c>
+      <c r="AU78">
+        <v>0.382875166666667</v>
+      </c>
+      <c r="AV78">
+        <v>0.303102222222222</v>
+      </c>
+      <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AY78">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AZ78">
+        <v>0.550354583333333</v>
+      </c>
+      <c r="BA78">
+        <v>0.592139895833333</v>
+      </c>
+      <c r="BB78">
+        <v>2.59889632958333</v>
+      </c>
+      <c r="BC78">
+        <v>4.08916170641667</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -14098,6 +14480,53 @@
       </c>
       <c r="AM83">
         <v>26</v>
+      </c>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>Gaming_Go</t>
+        </is>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>0.95</v>
+      </c>
+      <c r="AS83">
+        <v>0.334260416666667</v>
+      </c>
+      <c r="AU83">
+        <v>0.36265</v>
+      </c>
+      <c r="AV83">
+        <v>0.349666666666667</v>
+      </c>
+      <c r="AW83">
+        <v>1</v>
+      </c>
+      <c r="AX83">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="AY83">
+        <v>0.9375</v>
+      </c>
+      <c r="AZ83">
+        <v>0.392020833333333</v>
+      </c>
+      <c r="BA83">
+        <v>0.75175</v>
+      </c>
+      <c r="BB83">
+        <v>2.9662698415</v>
+      </c>
+      <c r="BC83">
+        <v>6.28968253983333</v>
       </c>
     </row>
     <row r="84">

--- a/Data/ProcessedData/dTot.xlsx
+++ b/Data/ProcessedData/dTot.xlsx
@@ -687,31 +687,31 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AC2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE2">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>4</v>
+      </c>
+      <c r="AI2">
         <v>16</v>
       </c>
-      <c r="AH2">
-        <v>16</v>
-      </c>
-      <c r="AI2">
-        <v>4</v>
-      </c>
       <c r="AJ2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK2">
         <v>24</v>
@@ -826,31 +826,31 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AC3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE3">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK3">
         <v>36</v>
@@ -1010,31 +1010,31 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AE4">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AF4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK4">
         <v>35</v>
@@ -1194,31 +1194,31 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC5">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD5">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE5">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK5">
         <v>46</v>
@@ -1375,31 +1375,31 @@
         <v>1</v>
       </c>
       <c r="AB6">
+        <v>33</v>
+      </c>
+      <c r="AC6">
         <v>13</v>
       </c>
-      <c r="AC6">
-        <v>22</v>
-      </c>
       <c r="AD6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE6">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF6">
         <v>10</v>
       </c>
       <c r="AG6">
+        <v>11</v>
+      </c>
+      <c r="AH6">
         <v>9</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>11</v>
       </c>
-      <c r="AI6">
-        <v>9</v>
-      </c>
       <c r="AJ6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK6">
         <v>37</v>
@@ -1529,31 +1529,31 @@
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AC7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF7">
+        <v>11</v>
+      </c>
+      <c r="AG7">
+        <v>13</v>
+      </c>
+      <c r="AH7">
+        <v>8</v>
+      </c>
+      <c r="AI7">
         <v>9</v>
       </c>
-      <c r="AG7">
-        <v>7</v>
-      </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>12</v>
-      </c>
-      <c r="AI7">
-        <v>11</v>
-      </c>
-      <c r="AJ7">
-        <v>8</v>
       </c>
       <c r="AK7">
         <v>28</v>
@@ -1716,31 +1716,31 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AD8">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE8">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>8</v>
+      </c>
+      <c r="AJ8">
         <v>16</v>
-      </c>
-      <c r="AI8">
-        <v>12</v>
-      </c>
-      <c r="AJ8">
-        <v>4</v>
       </c>
       <c r="AK8">
         <v>32</v>
@@ -1855,31 +1855,31 @@
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AC9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE9">
         <v>50</v>
       </c>
       <c r="AF9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK9">
         <v>43</v>
@@ -2012,31 +2012,31 @@
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AE10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF10">
         <v>10</v>
       </c>
       <c r="AG10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI10">
         <v>10</v>
       </c>
       <c r="AJ10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK10">
         <v>39</v>
@@ -2166,31 +2166,31 @@
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC11">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AD11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AE11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF11">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>12</v>
+      </c>
+      <c r="AH11">
         <v>9</v>
       </c>
-      <c r="AG11">
-        <v>8</v>
-      </c>
-      <c r="AH11">
-        <v>11</v>
-      </c>
       <c r="AI11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK11">
         <v>31</v>
@@ -2323,28 +2323,28 @@
         <v>1</v>
       </c>
       <c r="AB12">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD12">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AE12">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ12">
         <v>10</v>
@@ -2510,31 +2510,31 @@
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD13">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE13">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AF13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK13">
         <v>35</v>
@@ -2697,31 +2697,31 @@
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC14">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD14">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE14">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF14">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI14">
+        <v>11</v>
+      </c>
+      <c r="AJ14">
         <v>9</v>
-      </c>
-      <c r="AJ14">
-        <v>11</v>
       </c>
       <c r="AK14">
         <v>30</v>
@@ -2854,31 +2854,31 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AC15">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD15">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE15">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AF15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK15">
         <v>33</v>
@@ -3035,31 +3035,31 @@
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD16">
+        <v>42</v>
+      </c>
+      <c r="AE16">
         <v>55</v>
       </c>
-      <c r="AE16">
-        <v>45</v>
-      </c>
       <c r="AF16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG16">
+        <v>12</v>
+      </c>
+      <c r="AH16">
         <v>8</v>
       </c>
-      <c r="AH16">
-        <v>12</v>
-      </c>
       <c r="AI16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK16">
         <v>38</v>
@@ -3222,31 +3222,31 @@
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD17">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE17">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK17">
         <v>31</v>
@@ -3361,31 +3361,31 @@
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC18">
+        <v>16</v>
+      </c>
+      <c r="AD18">
         <v>25</v>
-      </c>
-      <c r="AD18">
-        <v>38</v>
       </c>
       <c r="AE18">
         <v>50</v>
       </c>
       <c r="AF18">
+        <v>14</v>
+      </c>
+      <c r="AG18">
+        <v>13</v>
+      </c>
+      <c r="AH18">
         <v>6</v>
       </c>
-      <c r="AG18">
-        <v>7</v>
-      </c>
-      <c r="AH18">
-        <v>14</v>
-      </c>
       <c r="AI18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK18">
         <v>26</v>
@@ -3518,28 +3518,28 @@
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC19">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD19">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AE19">
         <v>50</v>
       </c>
       <c r="AF19">
+        <v>7</v>
+      </c>
+      <c r="AG19">
         <v>13</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>7</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>13</v>
-      </c>
-      <c r="AI19">
-        <v>7</v>
       </c>
       <c r="AJ19">
         <v>10</v>
@@ -3699,31 +3699,31 @@
         <v>1</v>
       </c>
       <c r="AB20">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC20">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE20">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK20">
         <v>35</v>
@@ -3880,31 +3880,31 @@
         <v>1</v>
       </c>
       <c r="AB21">
+        <v>33</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
+      </c>
+      <c r="AD21">
+        <v>24</v>
+      </c>
+      <c r="AE21">
+        <v>54</v>
+      </c>
+      <c r="AF21">
+        <v>8</v>
+      </c>
+      <c r="AG21">
+        <v>15</v>
+      </c>
+      <c r="AH21">
         <v>13</v>
       </c>
-      <c r="AC21">
-        <v>29</v>
-      </c>
-      <c r="AD21">
-        <v>37</v>
-      </c>
-      <c r="AE21">
-        <v>46</v>
-      </c>
-      <c r="AF21">
+      <c r="AI21">
+        <v>6</v>
+      </c>
+      <c r="AJ21">
         <v>12</v>
-      </c>
-      <c r="AG21">
-        <v>5</v>
-      </c>
-      <c r="AH21">
-        <v>7</v>
-      </c>
-      <c r="AI21">
-        <v>14</v>
-      </c>
-      <c r="AJ21">
-        <v>8</v>
       </c>
       <c r="AK21">
         <v>26</v>
@@ -4037,31 +4037,31 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD22">
+        <v>29</v>
+      </c>
+      <c r="AE22">
         <v>42</v>
       </c>
-      <c r="AE22">
-        <v>58</v>
-      </c>
       <c r="AF22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG22">
         <v>10</v>
       </c>
       <c r="AH22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK22">
         <v>41</v>
@@ -4224,31 +4224,31 @@
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="AC23">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AD23">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AE23">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AF23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG23">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI23">
         <v>10</v>
       </c>
       <c r="AJ23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK23">
         <v>38</v>
@@ -4378,31 +4378,31 @@
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AC24">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD24">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE24">
         <v>50</v>
       </c>
       <c r="AF24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH24">
         <v>10</v>
       </c>
       <c r="AI24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK24">
         <v>44</v>
@@ -4535,31 +4535,31 @@
         <v>1</v>
       </c>
       <c r="AB25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC25">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AD25">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE25">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AF25">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AI25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK25">
         <v>42</v>
@@ -4719,28 +4719,28 @@
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AC26">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AD26">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AE26">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG26">
         <v>10</v>
       </c>
       <c r="AH26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ26">
         <v>10</v>
@@ -4906,31 +4906,31 @@
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC27">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD27">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AE27">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ27">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK27">
         <v>41</v>
@@ -5063,31 +5063,31 @@
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC28">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AD28">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AE28">
         <v>50</v>
       </c>
       <c r="AF28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG28">
+        <v>14</v>
+      </c>
+      <c r="AH28">
+        <v>5</v>
+      </c>
+      <c r="AI28">
         <v>6</v>
       </c>
-      <c r="AH28">
-        <v>15</v>
-      </c>
-      <c r="AI28">
-        <v>14</v>
-      </c>
       <c r="AJ28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK28">
         <v>33</v>
@@ -5250,31 +5250,31 @@
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AC29">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD29">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AE29">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF29">
+        <v>8</v>
+      </c>
+      <c r="AG29">
+        <v>9</v>
+      </c>
+      <c r="AH29">
+        <v>6</v>
+      </c>
+      <c r="AI29">
+        <v>9</v>
+      </c>
+      <c r="AJ29">
         <v>12</v>
-      </c>
-      <c r="AG29">
-        <v>11</v>
-      </c>
-      <c r="AH29">
-        <v>14</v>
-      </c>
-      <c r="AI29">
-        <v>11</v>
-      </c>
-      <c r="AJ29">
-        <v>8</v>
       </c>
       <c r="AK29">
         <v>34</v>
@@ -5407,31 +5407,31 @@
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AC30">
+        <v>25</v>
+      </c>
+      <c r="AD30">
         <v>34</v>
       </c>
-      <c r="AD30">
-        <v>47</v>
-      </c>
       <c r="AE30">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AF30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH30">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK30">
         <v>37</v>
@@ -5546,31 +5546,31 @@
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AC31">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD31">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE31">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG31">
         <v>10</v>
       </c>
       <c r="AH31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI31">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK31">
         <v>35</v>
@@ -5733,31 +5733,31 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AC32">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD32">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE32">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG32">
         <v>10</v>
       </c>
       <c r="AH32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI32">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK32">
         <v>38</v>
@@ -5887,31 +5887,31 @@
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC33">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD33">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE33">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AF33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH33">
         <v>10</v>
       </c>
       <c r="AI33">
+        <v>7</v>
+      </c>
+      <c r="AJ33">
         <v>13</v>
-      </c>
-      <c r="AJ33">
-        <v>7</v>
       </c>
       <c r="AK33">
         <v>36</v>
@@ -6071,31 +6071,31 @@
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="AC34">
+        <v>6</v>
+      </c>
+      <c r="AD34">
+        <v>26</v>
+      </c>
+      <c r="AE34">
+        <v>58</v>
+      </c>
+      <c r="AF34">
+        <v>13</v>
+      </c>
+      <c r="AG34">
+        <v>13</v>
+      </c>
+      <c r="AH34">
+        <v>8</v>
+      </c>
+      <c r="AI34">
+        <v>9</v>
+      </c>
+      <c r="AJ34">
         <v>15</v>
-      </c>
-      <c r="AD34">
-        <v>39</v>
-      </c>
-      <c r="AE34">
-        <v>42</v>
-      </c>
-      <c r="AF34">
-        <v>7</v>
-      </c>
-      <c r="AG34">
-        <v>7</v>
-      </c>
-      <c r="AH34">
-        <v>12</v>
-      </c>
-      <c r="AI34">
-        <v>11</v>
-      </c>
-      <c r="AJ34">
-        <v>5</v>
       </c>
       <c r="AK34">
         <v>39</v>
@@ -6228,31 +6228,31 @@
         <v>1</v>
       </c>
       <c r="AB35">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AC35">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD35">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AE35">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH35">
+        <v>9</v>
+      </c>
+      <c r="AI35">
+        <v>9</v>
+      </c>
+      <c r="AJ35">
         <v>11</v>
-      </c>
-      <c r="AI35">
-        <v>11</v>
-      </c>
-      <c r="AJ35">
-        <v>9</v>
       </c>
       <c r="AK35">
         <v>36</v>
@@ -6367,31 +6367,31 @@
         <v>1</v>
       </c>
       <c r="AB36">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AC36">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AD36">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE36">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AF36">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG36">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH36">
         <v>10</v>
       </c>
       <c r="AI36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK36">
         <v>40</v>
@@ -6554,31 +6554,31 @@
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC37">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AD37">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE37">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG37">
+        <v>15</v>
+      </c>
+      <c r="AH37">
         <v>5</v>
-      </c>
-      <c r="AH37">
-        <v>15</v>
       </c>
       <c r="AI37">
         <v>10</v>
       </c>
       <c r="AJ37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK37">
         <v>33</v>
@@ -6711,31 +6711,31 @@
         <v>0</v>
       </c>
       <c r="AB38">
+        <v>53</v>
+      </c>
+      <c r="AC38">
+        <v>10</v>
+      </c>
+      <c r="AD38">
         <v>33</v>
       </c>
-      <c r="AC38">
-        <v>19</v>
-      </c>
-      <c r="AD38">
-        <v>46</v>
-      </c>
       <c r="AE38">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF38">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AG38">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH38">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI38">
         <v>10</v>
       </c>
       <c r="AJ38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK38">
         <v>35</v>
@@ -6895,28 +6895,28 @@
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC39">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD39">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE39">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG39">
+        <v>13</v>
+      </c>
+      <c r="AH39">
+        <v>8</v>
+      </c>
+      <c r="AI39">
         <v>7</v>
-      </c>
-      <c r="AH39">
-        <v>12</v>
-      </c>
-      <c r="AI39">
-        <v>13</v>
       </c>
       <c r="AJ39">
         <v>10</v>
@@ -7082,28 +7082,28 @@
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AC40">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD40">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE40">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ40">
         <v>10</v>
@@ -7269,31 +7269,31 @@
         <v>1</v>
       </c>
       <c r="AB41">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC41">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD41">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE41">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF41">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH41">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI41">
+        <v>5</v>
+      </c>
+      <c r="AJ41">
         <v>15</v>
-      </c>
-      <c r="AJ41">
-        <v>5</v>
       </c>
       <c r="AK41">
         <v>35</v>
@@ -7426,31 +7426,31 @@
         <v>1</v>
       </c>
       <c r="AB42">
+        <v>29</v>
+      </c>
+      <c r="AC42">
+        <v>18</v>
+      </c>
+      <c r="AD42">
+        <v>34</v>
+      </c>
+      <c r="AE42">
+        <v>47</v>
+      </c>
+      <c r="AF42">
         <v>9</v>
       </c>
-      <c r="AC42">
-        <v>27</v>
-      </c>
-      <c r="AD42">
-        <v>47</v>
-      </c>
-      <c r="AE42">
-        <v>53</v>
-      </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>11</v>
       </c>
-      <c r="AG42">
-        <v>9</v>
-      </c>
       <c r="AH42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK42">
         <v>33</v>
@@ -7613,31 +7613,31 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AC43">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD43">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE43">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG43">
         <v>10</v>
       </c>
       <c r="AH43">
+        <v>8</v>
+      </c>
+      <c r="AI43">
         <v>12</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>8</v>
-      </c>
-      <c r="AJ43">
-        <v>12</v>
       </c>
       <c r="AK43">
         <v>30</v>
@@ -7800,31 +7800,31 @@
         <v>1</v>
       </c>
       <c r="AB44">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AC44">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AD44">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AE44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AF44">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK44">
         <v>47</v>
@@ -7987,31 +7987,31 @@
         <v>1</v>
       </c>
       <c r="AB45">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD45">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE45">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF45">
+        <v>12</v>
+      </c>
+      <c r="AG45">
+        <v>12</v>
+      </c>
+      <c r="AH45">
+        <v>12</v>
+      </c>
+      <c r="AI45">
         <v>8</v>
       </c>
-      <c r="AG45">
-        <v>8</v>
-      </c>
-      <c r="AH45">
-        <v>8</v>
-      </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>12</v>
-      </c>
-      <c r="AJ45">
-        <v>8</v>
       </c>
       <c r="AK45">
         <v>27</v>
@@ -8171,31 +8171,31 @@
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC46">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD46">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE46">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF46">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG46">
+        <v>12</v>
+      </c>
+      <c r="AH46">
         <v>8</v>
       </c>
-      <c r="AH46">
-        <v>12</v>
-      </c>
       <c r="AI46">
+        <v>9</v>
+      </c>
+      <c r="AJ46">
         <v>11</v>
-      </c>
-      <c r="AJ46">
-        <v>9</v>
       </c>
       <c r="AK46">
         <v>18</v>
@@ -8325,31 +8325,31 @@
         <v>1</v>
       </c>
       <c r="AB47">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AC47">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD47">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE47">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF47">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG47">
+        <v>9</v>
+      </c>
+      <c r="AH47">
+        <v>7</v>
+      </c>
+      <c r="AI47">
         <v>11</v>
       </c>
-      <c r="AH47">
-        <v>13</v>
-      </c>
-      <c r="AI47">
-        <v>9</v>
-      </c>
       <c r="AJ47">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK47">
         <v>32</v>
@@ -8482,31 +8482,31 @@
         <v>1</v>
       </c>
       <c r="AB48">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AC48">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AD48">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE48">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF48">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG48">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ48">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK48">
         <v>25</v>
@@ -8666,31 +8666,31 @@
         <v>1</v>
       </c>
       <c r="AB49">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC49">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD49">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE49">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF49">
         <v>10</v>
       </c>
       <c r="AG49">
+        <v>9</v>
+      </c>
+      <c r="AH49">
+        <v>8</v>
+      </c>
+      <c r="AI49">
+        <v>9</v>
+      </c>
+      <c r="AJ49">
         <v>11</v>
-      </c>
-      <c r="AH49">
-        <v>12</v>
-      </c>
-      <c r="AI49">
-        <v>11</v>
-      </c>
-      <c r="AJ49">
-        <v>9</v>
       </c>
       <c r="AK49">
         <v>31</v>
@@ -8820,28 +8820,28 @@
         <v>1</v>
       </c>
       <c r="AB50">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD50">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE50">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF50">
         <v>10</v>
       </c>
       <c r="AG50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ50">
         <v>10</v>
@@ -8977,31 +8977,31 @@
         <v>1</v>
       </c>
       <c r="AB51">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AC51">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD51">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE51">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AF51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG51">
         <v>10</v>
       </c>
       <c r="AH51">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK51">
         <v>41</v>
@@ -9164,31 +9164,31 @@
         <v>1</v>
       </c>
       <c r="AB52">
+        <v>32</v>
+      </c>
+      <c r="AC52">
         <v>12</v>
       </c>
-      <c r="AC52">
-        <v>21</v>
-      </c>
       <c r="AD52">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AE52">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF52">
         <v>10</v>
       </c>
       <c r="AG52">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH52">
         <v>10</v>
       </c>
       <c r="AI52">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ52">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK52">
         <v>40</v>
@@ -9321,31 +9321,31 @@
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AC53">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD53">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AE53">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF53">
         <v>10</v>
       </c>
       <c r="AG53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AI53">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ53">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AK53">
         <v>33</v>
@@ -9478,28 +9478,28 @@
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC54">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AD54">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE54">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AF54">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG54">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH54">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI54">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ54">
         <v>10</v>
@@ -9665,31 +9665,31 @@
         <v>1</v>
       </c>
       <c r="AB55">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC55">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AD55">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE55">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH55">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK55">
         <v>29</v>
@@ -9852,31 +9852,31 @@
         <v>1</v>
       </c>
       <c r="AB56">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC56">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AD56">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE56">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AF56">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG56">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK56">
         <v>36</v>
@@ -10006,31 +10006,31 @@
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC57">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD57">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE57">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF57">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH57">
+        <v>8</v>
+      </c>
+      <c r="AI57">
+        <v>7</v>
+      </c>
+      <c r="AJ57">
         <v>12</v>
-      </c>
-      <c r="AI57">
-        <v>13</v>
-      </c>
-      <c r="AJ57">
-        <v>8</v>
       </c>
       <c r="AK57">
         <v>34</v>
@@ -10157,31 +10157,31 @@
         <v>1</v>
       </c>
       <c r="AB58">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC58">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AD58">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE58">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF58">
         <v>10</v>
       </c>
       <c r="AG58">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH58">
         <v>10</v>
       </c>
       <c r="AI58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK58">
         <v>39</v>
@@ -10314,16 +10314,16 @@
         <v>1</v>
       </c>
       <c r="AB59">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AC59">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD59">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE59">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF59">
         <v>10</v>
@@ -10332,10 +10332,10 @@
         <v>10</v>
       </c>
       <c r="AH59">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI59">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ59">
         <v>10</v>
@@ -10501,31 +10501,31 @@
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC60">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD60">
+        <v>29</v>
+      </c>
+      <c r="AE60">
         <v>42</v>
-      </c>
-      <c r="AE60">
-        <v>58</v>
       </c>
       <c r="AF60">
         <v>10</v>
       </c>
       <c r="AG60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI60">
         <v>10</v>
       </c>
       <c r="AJ60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AK60">
         <v>19</v>
@@ -10688,28 +10688,28 @@
         <v>1</v>
       </c>
       <c r="AB61">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC61">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD61">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE61">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF61">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG61">
         <v>10</v>
       </c>
       <c r="AH61">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI61">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ61">
         <v>10</v>
@@ -10875,31 +10875,31 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC62">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD62">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE62">
         <v>50</v>
       </c>
       <c r="AF62">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG62">
+        <v>14</v>
+      </c>
+      <c r="AH62">
         <v>6</v>
-      </c>
-      <c r="AH62">
-        <v>14</v>
       </c>
       <c r="AI62">
         <v>10</v>
       </c>
       <c r="AJ62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK62">
         <v>36</v>
@@ -11062,31 +11062,31 @@
         <v>1</v>
       </c>
       <c r="AB63">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AC63">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD63">
+        <v>33</v>
+      </c>
+      <c r="AE63">
         <v>46</v>
       </c>
-      <c r="AE63">
-        <v>54</v>
-      </c>
       <c r="AF63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK63">
         <v>34</v>
@@ -11249,31 +11249,31 @@
         <v>1</v>
       </c>
       <c r="AB64">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC64">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD64">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE64">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AF64">
+        <v>11</v>
+      </c>
+      <c r="AG64">
+        <v>11</v>
+      </c>
+      <c r="AH64">
+        <v>4</v>
+      </c>
+      <c r="AI64">
+        <v>4</v>
+      </c>
+      <c r="AJ64">
         <v>9</v>
-      </c>
-      <c r="AG64">
-        <v>9</v>
-      </c>
-      <c r="AH64">
-        <v>16</v>
-      </c>
-      <c r="AI64">
-        <v>16</v>
-      </c>
-      <c r="AJ64">
-        <v>11</v>
       </c>
       <c r="AK64">
         <v>37</v>
@@ -11436,31 +11436,31 @@
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC65">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD65">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AE65">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF65">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG65">
         <v>10</v>
       </c>
       <c r="AH65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI65">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ65">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK65">
         <v>39</v>
@@ -11623,31 +11623,31 @@
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC66">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD66">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE66">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF66">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG66">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH66">
+        <v>8</v>
+      </c>
+      <c r="AI66">
         <v>12</v>
       </c>
-      <c r="AI66">
-        <v>8</v>
-      </c>
       <c r="AJ66">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK66">
         <v>29</v>
@@ -11810,31 +11810,31 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC67">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD67">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE67">
         <v>50</v>
       </c>
       <c r="AF67">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG67">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK67">
         <v>22</v>
@@ -11949,31 +11949,31 @@
         <v>1</v>
       </c>
       <c r="AB68">
+        <v>27</v>
+      </c>
+      <c r="AC68">
+        <v>3</v>
+      </c>
+      <c r="AD68">
+        <v>35</v>
+      </c>
+      <c r="AE68">
+        <v>30</v>
+      </c>
+      <c r="AF68">
+        <v>5</v>
+      </c>
+      <c r="AG68">
+        <v>8</v>
+      </c>
+      <c r="AH68">
+        <v>6</v>
+      </c>
+      <c r="AI68">
+        <v>4</v>
+      </c>
+      <c r="AJ68">
         <v>7</v>
-      </c>
-      <c r="AC68">
-        <v>12</v>
-      </c>
-      <c r="AD68">
-        <v>48</v>
-      </c>
-      <c r="AE68">
-        <v>70</v>
-      </c>
-      <c r="AF68">
-        <v>15</v>
-      </c>
-      <c r="AG68">
-        <v>12</v>
-      </c>
-      <c r="AH68">
-        <v>14</v>
-      </c>
-      <c r="AI68">
-        <v>16</v>
-      </c>
-      <c r="AJ68">
-        <v>13</v>
       </c>
       <c r="AK68">
         <v>39</v>
@@ -12136,31 +12136,31 @@
         <v>1</v>
       </c>
       <c r="AB69">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC69">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD69">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AE69">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF69">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH69">
+        <v>8</v>
+      </c>
+      <c r="AI69">
+        <v>4</v>
+      </c>
+      <c r="AJ69">
         <v>12</v>
-      </c>
-      <c r="AI69">
-        <v>16</v>
-      </c>
-      <c r="AJ69">
-        <v>8</v>
       </c>
       <c r="AK69">
         <v>36</v>
@@ -12323,31 +12323,31 @@
         <v>1</v>
       </c>
       <c r="AB70">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC70">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD70">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE70">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF70">
+        <v>8</v>
+      </c>
+      <c r="AG70">
+        <v>9</v>
+      </c>
+      <c r="AH70">
+        <v>8</v>
+      </c>
+      <c r="AI70">
+        <v>8</v>
+      </c>
+      <c r="AJ70">
         <v>12</v>
-      </c>
-      <c r="AG70">
-        <v>11</v>
-      </c>
-      <c r="AH70">
-        <v>12</v>
-      </c>
-      <c r="AI70">
-        <v>12</v>
-      </c>
-      <c r="AJ70">
-        <v>8</v>
       </c>
       <c r="AK70">
         <v>40</v>
@@ -12480,31 +12480,31 @@
         <v>1</v>
       </c>
       <c r="AB71">
+        <v>52</v>
+      </c>
+      <c r="AC71">
+        <v>17</v>
+      </c>
+      <c r="AD71">
         <v>32</v>
       </c>
-      <c r="AC71">
-        <v>26</v>
-      </c>
-      <c r="AD71">
-        <v>45</v>
-      </c>
       <c r="AE71">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG71">
         <v>10</v>
       </c>
       <c r="AH71">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI71">
+        <v>7</v>
+      </c>
+      <c r="AJ71">
         <v>13</v>
-      </c>
-      <c r="AJ71">
-        <v>7</v>
       </c>
       <c r="AK71">
         <v>31</v>
@@ -12667,31 +12667,31 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC72">
+        <v>9</v>
+      </c>
+      <c r="AD72">
         <v>18</v>
       </c>
-      <c r="AD72">
-        <v>31</v>
-      </c>
       <c r="AE72">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF72">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG72">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI72">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ72">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK72">
         <v>40</v>
@@ -12851,31 +12851,31 @@
         <v>1</v>
       </c>
       <c r="AB73">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC73">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD73">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE73">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF73">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG73">
         <v>10</v>
       </c>
       <c r="AH73">
+        <v>7</v>
+      </c>
+      <c r="AI73">
         <v>13</v>
       </c>
-      <c r="AI73">
-        <v>7</v>
-      </c>
       <c r="AJ73">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK73">
         <v>34</v>
@@ -13035,31 +13035,31 @@
         <v>1</v>
       </c>
       <c r="AB74">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC74">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD74">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AE74">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF74">
+        <v>7</v>
+      </c>
+      <c r="AG74">
+        <v>11</v>
+      </c>
+      <c r="AH74">
+        <v>5</v>
+      </c>
+      <c r="AI74">
+        <v>8</v>
+      </c>
+      <c r="AJ74">
         <v>13</v>
-      </c>
-      <c r="AG74">
-        <v>9</v>
-      </c>
-      <c r="AH74">
-        <v>15</v>
-      </c>
-      <c r="AI74">
-        <v>12</v>
-      </c>
-      <c r="AJ74">
-        <v>7</v>
       </c>
       <c r="AK74">
         <v>44</v>
@@ -13222,31 +13222,31 @@
         <v>1</v>
       </c>
       <c r="AB75">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AC75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD75">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AE75">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AF75">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG75">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH75">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI75">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ75">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK75">
         <v>34</v>
@@ -13379,31 +13379,31 @@
         <v>1</v>
       </c>
       <c r="AB76">
+        <v>29</v>
+      </c>
+      <c r="AC76">
+        <v>3</v>
+      </c>
+      <c r="AD76">
+        <v>37</v>
+      </c>
+      <c r="AE76">
+        <v>41</v>
+      </c>
+      <c r="AF76">
+        <v>5</v>
+      </c>
+      <c r="AG76">
         <v>9</v>
       </c>
-      <c r="AC76">
+      <c r="AH76">
+        <v>7</v>
+      </c>
+      <c r="AI76">
+        <v>8</v>
+      </c>
+      <c r="AJ76">
         <v>12</v>
-      </c>
-      <c r="AD76">
-        <v>50</v>
-      </c>
-      <c r="AE76">
-        <v>59</v>
-      </c>
-      <c r="AF76">
-        <v>15</v>
-      </c>
-      <c r="AG76">
-        <v>11</v>
-      </c>
-      <c r="AH76">
-        <v>13</v>
-      </c>
-      <c r="AI76">
-        <v>12</v>
-      </c>
-      <c r="AJ76">
-        <v>8</v>
       </c>
       <c r="AK76">
         <v>38</v>
@@ -13563,31 +13563,31 @@
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AC77">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD77">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE77">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF77">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH77">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ77">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK77">
         <v>43</v>
@@ -13750,31 +13750,31 @@
         <v>1</v>
       </c>
       <c r="AB78">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC78">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD78">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE78">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF78">
+        <v>7</v>
+      </c>
+      <c r="AG78">
+        <v>11</v>
+      </c>
+      <c r="AH78">
+        <v>5</v>
+      </c>
+      <c r="AI78">
+        <v>8</v>
+      </c>
+      <c r="AJ78">
         <v>13</v>
-      </c>
-      <c r="AG78">
-        <v>9</v>
-      </c>
-      <c r="AH78">
-        <v>15</v>
-      </c>
-      <c r="AI78">
-        <v>12</v>
-      </c>
-      <c r="AJ78">
-        <v>7</v>
       </c>
       <c r="AK78">
         <v>39</v>
@@ -13937,31 +13937,31 @@
         <v>0</v>
       </c>
       <c r="AB79">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC79">
+        <v>2</v>
+      </c>
+      <c r="AD79">
+        <v>31</v>
+      </c>
+      <c r="AE79">
+        <v>39</v>
+      </c>
+      <c r="AF79">
+        <v>8</v>
+      </c>
+      <c r="AG79">
         <v>11</v>
       </c>
-      <c r="AD79">
-        <v>44</v>
-      </c>
-      <c r="AE79">
-        <v>61</v>
-      </c>
-      <c r="AF79">
-        <v>12</v>
-      </c>
-      <c r="AG79">
-        <v>9</v>
-      </c>
       <c r="AH79">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ79">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK79">
         <v>38</v>
@@ -14124,31 +14124,31 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AC80">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD80">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE80">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF80">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG80">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH80">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI80">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ80">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK80">
         <v>41</v>
@@ -14305,31 +14305,31 @@
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC81">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AD81">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE81">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG81">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH81">
         <v>10</v>
       </c>
       <c r="AI81">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK81">
         <v>32</v>
@@ -14442,31 +14442,31 @@
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AC82">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AD82">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AE82">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF82">
+        <v>12</v>
+      </c>
+      <c r="AG82">
+        <v>12</v>
+      </c>
+      <c r="AH82">
+        <v>7</v>
+      </c>
+      <c r="AI82">
         <v>8</v>
       </c>
-      <c r="AG82">
-        <v>8</v>
-      </c>
-      <c r="AH82">
+      <c r="AJ82">
         <v>13</v>
-      </c>
-      <c r="AI82">
-        <v>12</v>
-      </c>
-      <c r="AJ82">
-        <v>7</v>
       </c>
       <c r="AK82">
         <v>44</v>
@@ -14629,28 +14629,28 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AC83">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD83">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AE83">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF83">
+        <v>16</v>
+      </c>
+      <c r="AG83">
+        <v>16</v>
+      </c>
+      <c r="AH83">
+        <v>5</v>
+      </c>
+      <c r="AI83">
         <v>4</v>
-      </c>
-      <c r="AG83">
-        <v>4</v>
-      </c>
-      <c r="AH83">
-        <v>15</v>
-      </c>
-      <c r="AI83">
-        <v>16</v>
       </c>
       <c r="AJ83">
         <v>10</v>
@@ -14780,31 +14780,31 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC84">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD84">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE84">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG84">
         <v>10</v>
       </c>
       <c r="AH84">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI84">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ84">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK84">
         <v>26</v>
@@ -14937,31 +14937,31 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AC85">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD85">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE85">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG85">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH85">
         <v>10</v>
       </c>
       <c r="AI85">
+        <v>9</v>
+      </c>
+      <c r="AJ85">
         <v>11</v>
-      </c>
-      <c r="AJ85">
-        <v>9</v>
       </c>
       <c r="AK85">
         <v>36</v>
@@ -15026,31 +15026,31 @@
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AC86">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD86">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE86">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AF86">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG86">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI86">
         <v>10</v>
       </c>
       <c r="AJ86">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK86">
         <v>29</v>
@@ -15213,31 +15213,31 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AC87">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AD87">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE87">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF87">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG87">
+        <v>11</v>
+      </c>
+      <c r="AH87">
         <v>9</v>
       </c>
-      <c r="AH87">
+      <c r="AI87">
         <v>11</v>
       </c>
-      <c r="AI87">
-        <v>9</v>
-      </c>
       <c r="AJ87">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK87">
         <v>28</v>
@@ -15397,31 +15397,31 @@
         <v>1</v>
       </c>
       <c r="AB88">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AC88">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD88">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AE88">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF88">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH88">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI88">
         <v>10</v>
       </c>
       <c r="AJ88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK88">
         <v>26</v>
@@ -15584,31 +15584,31 @@
         <v>0</v>
       </c>
       <c r="AB89">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AC89">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD89">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE89">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF89">
+        <v>8</v>
+      </c>
+      <c r="AG89">
+        <v>11</v>
+      </c>
+      <c r="AH89">
+        <v>8</v>
+      </c>
+      <c r="AI89">
         <v>12</v>
       </c>
-      <c r="AG89">
-        <v>9</v>
-      </c>
-      <c r="AH89">
+      <c r="AJ89">
         <v>12</v>
-      </c>
-      <c r="AI89">
-        <v>8</v>
-      </c>
-      <c r="AJ89">
-        <v>8</v>
       </c>
       <c r="AK89">
         <v>29</v>
@@ -15768,31 +15768,31 @@
         <v>1</v>
       </c>
       <c r="AB90">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC90">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD90">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE90">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF90">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH90">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI90">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ90">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK90">
         <v>41</v>
@@ -15955,31 +15955,31 @@
         <v>1</v>
       </c>
       <c r="AB91">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC91">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD91">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE91">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH91">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI91">
         <v>10</v>
       </c>
       <c r="AJ91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK91">
         <v>27</v>
@@ -16136,31 +16136,31 @@
         <v>1</v>
       </c>
       <c r="AB92">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC92">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD92">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE92">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF92">
         <v>10</v>
       </c>
       <c r="AG92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH92">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI92">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK92">
         <v>38</v>
@@ -16323,31 +16323,31 @@
         <v>1</v>
       </c>
       <c r="AB93">
+        <v>63</v>
+      </c>
+      <c r="AC93">
+        <v>13</v>
+      </c>
+      <c r="AD93">
+        <v>31</v>
+      </c>
+      <c r="AE93">
         <v>43</v>
       </c>
-      <c r="AC93">
-        <v>22</v>
-      </c>
-      <c r="AD93">
-        <v>44</v>
-      </c>
-      <c r="AE93">
-        <v>57</v>
-      </c>
       <c r="AF93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH93">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ93">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK93">
         <v>32</v>
@@ -16510,31 +16510,31 @@
         <v>1</v>
       </c>
       <c r="AB94">
+        <v>36</v>
+      </c>
+      <c r="AC94">
+        <v>11</v>
+      </c>
+      <c r="AD94">
         <v>16</v>
       </c>
-      <c r="AC94">
-        <v>20</v>
-      </c>
-      <c r="AD94">
-        <v>29</v>
-      </c>
       <c r="AE94">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF94">
+        <v>9</v>
+      </c>
+      <c r="AG94">
         <v>11</v>
       </c>
-      <c r="AG94">
-        <v>9</v>
-      </c>
       <c r="AH94">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI94">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK94">
         <v>39</v>
@@ -16697,28 +16697,28 @@
         <v>1</v>
       </c>
       <c r="AB95">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC95">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD95">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE95">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AF95">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG95">
         <v>10</v>
       </c>
       <c r="AH95">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI95">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ95">
         <v>10</v>
@@ -16848,28 +16848,28 @@
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC96">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD96">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AE96">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF96">
         <v>10</v>
       </c>
       <c r="AG96">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH96">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI96">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ96">
         <v>10</v>
@@ -17029,31 +17029,31 @@
         <v>1</v>
       </c>
       <c r="AB97">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AC97">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD97">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE97">
         <v>50</v>
       </c>
       <c r="AF97">
+        <v>16</v>
+      </c>
+      <c r="AG97">
+        <v>13</v>
+      </c>
+      <c r="AH97">
+        <v>6</v>
+      </c>
+      <c r="AI97">
         <v>4</v>
       </c>
-      <c r="AG97">
-        <v>7</v>
-      </c>
-      <c r="AH97">
-        <v>14</v>
-      </c>
-      <c r="AI97">
-        <v>16</v>
-      </c>
       <c r="AJ97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK97">
         <v>43</v>
@@ -17183,31 +17183,31 @@
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC98">
+        <v>3</v>
+      </c>
+      <c r="AD98">
+        <v>29</v>
+      </c>
+      <c r="AE98">
+        <v>44</v>
+      </c>
+      <c r="AF98">
         <v>12</v>
       </c>
-      <c r="AD98">
-        <v>42</v>
-      </c>
-      <c r="AE98">
-        <v>56</v>
-      </c>
-      <c r="AF98">
-        <v>8</v>
-      </c>
       <c r="AG98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH98">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI98">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK98">
         <v>43</v>
@@ -17340,31 +17340,31 @@
         <v>1</v>
       </c>
       <c r="AB99">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AC99">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AD99">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AE99">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF99">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG99">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH99">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI99">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK99">
         <v>40</v>
@@ -17527,28 +17527,28 @@
         <v>1</v>
       </c>
       <c r="AB100">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC100">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD100">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AE100">
         <v>50</v>
       </c>
       <c r="AF100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG100">
         <v>10</v>
       </c>
       <c r="AH100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI100">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ100">
         <v>10</v>
@@ -17714,31 +17714,31 @@
         <v>1</v>
       </c>
       <c r="AB101">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AC101">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD101">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE101">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AF101">
         <v>10</v>
       </c>
       <c r="AG101">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH101">
+        <v>9</v>
+      </c>
+      <c r="AI101">
         <v>11</v>
       </c>
-      <c r="AI101">
-        <v>9</v>
-      </c>
       <c r="AJ101">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK101">
         <v>36</v>
@@ -17871,31 +17871,31 @@
         <v>0</v>
       </c>
       <c r="AB102">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC102">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD102">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AE102">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AF102">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG102">
         <v>10</v>
       </c>
       <c r="AH102">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI102">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK102">
         <v>36</v>
@@ -18028,31 +18028,31 @@
         <v>1</v>
       </c>
       <c r="AB103">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC103">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD103">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE103">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF103">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG103">
         <v>10</v>
       </c>
       <c r="AH103">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI103">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK103">
         <v>44</v>
@@ -18215,31 +18215,31 @@
         <v>0</v>
       </c>
       <c r="AB104">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC104">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD104">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE104">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF104">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AG104">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH104">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI104">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ104">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK104">
         <v>49</v>
@@ -18399,31 +18399,31 @@
         <v>1</v>
       </c>
       <c r="AB105">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AC105">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD105">
+        <v>31</v>
+      </c>
+      <c r="AE105">
         <v>44</v>
       </c>
-      <c r="AE105">
-        <v>56</v>
-      </c>
       <c r="AF105">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG105">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH105">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI105">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ105">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK105">
         <v>40</v>
@@ -18586,31 +18586,31 @@
         <v>1</v>
       </c>
       <c r="AB106">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC106">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD106">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE106">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF106">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG106">
         <v>10</v>
       </c>
       <c r="AH106">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI106">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK106">
         <v>33</v>
@@ -18740,31 +18740,31 @@
         <v>1</v>
       </c>
       <c r="AB107">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC107">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD107">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE107">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AF107">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG107">
         <v>10</v>
       </c>
       <c r="AH107">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK107">
         <v>30</v>
@@ -18927,31 +18927,31 @@
         <v>1</v>
       </c>
       <c r="AB108">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AC108">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AD108">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE108">
         <v>50</v>
       </c>
       <c r="AF108">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG108">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH108">
+        <v>6</v>
+      </c>
+      <c r="AI108">
+        <v>8</v>
+      </c>
+      <c r="AJ108">
         <v>14</v>
-      </c>
-      <c r="AI108">
-        <v>12</v>
-      </c>
-      <c r="AJ108">
-        <v>6</v>
       </c>
       <c r="AK108">
         <v>30</v>
@@ -19114,28 +19114,28 @@
         <v>1</v>
       </c>
       <c r="AB109">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC109">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD109">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE109">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF109">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG109">
         <v>10</v>
       </c>
       <c r="AH109">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI109">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ109">
         <v>10</v>
@@ -19271,25 +19271,25 @@
         <v>1</v>
       </c>
       <c r="AB110">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC110">
+        <v>23</v>
+      </c>
+      <c r="AD110">
         <v>32</v>
       </c>
-      <c r="AD110">
-        <v>45</v>
-      </c>
       <c r="AE110">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF110">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG110">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH110">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI110">
         <v>10</v>
@@ -19458,31 +19458,31 @@
         <v>1</v>
       </c>
       <c r="AB111">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AC111">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD111">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE111">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF111">
         <v>10</v>
       </c>
       <c r="AG111">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK111">
         <v>40</v>
@@ -19645,31 +19645,31 @@
         <v>1</v>
       </c>
       <c r="AB112">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC112">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD112">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE112">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF112">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG112">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH112">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI112">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ112">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK112">
         <v>32</v>
@@ -19802,31 +19802,31 @@
         <v>1</v>
       </c>
       <c r="AB113">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC113">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AD113">
+        <v>31</v>
+      </c>
+      <c r="AE113">
         <v>44</v>
       </c>
-      <c r="AE113">
-        <v>56</v>
-      </c>
       <c r="AF113">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG113">
+        <v>9</v>
+      </c>
+      <c r="AH113">
+        <v>8</v>
+      </c>
+      <c r="AI113">
+        <v>9</v>
+      </c>
+      <c r="AJ113">
         <v>11</v>
-      </c>
-      <c r="AH113">
-        <v>12</v>
-      </c>
-      <c r="AI113">
-        <v>11</v>
-      </c>
-      <c r="AJ113">
-        <v>9</v>
       </c>
       <c r="AK113">
         <v>26</v>
@@ -19959,31 +19959,31 @@
         <v>1</v>
       </c>
       <c r="AB114">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AC114">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AD114">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AE114">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF114">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG114">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH114">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI114">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ114">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK114">
         <v>37</v>
@@ -20095,31 +20095,31 @@
         <v>1</v>
       </c>
       <c r="AB115">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC115">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD115">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE115">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF115">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG115">
         <v>10</v>
       </c>
       <c r="AH115">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI115">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ115">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK115">
         <v>35</v>
@@ -20282,31 +20282,31 @@
         <v>1</v>
       </c>
       <c r="AB116">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AC116">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD116">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AE116">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF116">
+        <v>11</v>
+      </c>
+      <c r="AG116">
+        <v>12</v>
+      </c>
+      <c r="AH116">
         <v>9</v>
-      </c>
-      <c r="AG116">
-        <v>8</v>
-      </c>
-      <c r="AH116">
-        <v>11</v>
       </c>
       <c r="AI116">
         <v>10</v>
       </c>
       <c r="AJ116">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK116">
         <v>32</v>
@@ -20466,31 +20466,31 @@
         <v>1</v>
       </c>
       <c r="AB117">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC117">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AD117">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE117">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF117">
+        <v>8</v>
+      </c>
+      <c r="AG117">
         <v>12</v>
       </c>
-      <c r="AG117">
-        <v>8</v>
-      </c>
       <c r="AH117">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI117">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ117">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK117">
         <v>34</v>
@@ -20623,31 +20623,31 @@
         <v>0</v>
       </c>
       <c r="AB118">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC118">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD118">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AE118">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF118">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG118">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH118">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI118">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ118">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK118">
         <v>17</v>
@@ -20807,31 +20807,31 @@
         <v>1</v>
       </c>
       <c r="AB119">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC119">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AD119">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AE119">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AF119">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG119">
         <v>10</v>
       </c>
       <c r="AH119">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI119">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK119">
         <v>44</v>
@@ -20961,31 +20961,31 @@
         <v>1</v>
       </c>
       <c r="AB120">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC120">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AD120">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE120">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF120">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG120">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH120">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI120">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ120">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK120">
         <v>40</v>
@@ -21148,31 +21148,31 @@
         <v>1</v>
       </c>
       <c r="AB121">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AC121">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AD121">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE121">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH121">
         <v>10</v>
       </c>
       <c r="AI121">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AJ121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK121">
         <v>30</v>
@@ -21305,31 +21305,31 @@
         <v>1</v>
       </c>
       <c r="AB122">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC122">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AD122">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE122">
         <v>50</v>
       </c>
       <c r="AF122">
+        <v>9</v>
+      </c>
+      <c r="AG122">
+        <v>8</v>
+      </c>
+      <c r="AH122">
         <v>11</v>
       </c>
-      <c r="AG122">
-        <v>12</v>
-      </c>
-      <c r="AH122">
+      <c r="AI122">
         <v>9</v>
       </c>
-      <c r="AI122">
-        <v>11</v>
-      </c>
       <c r="AJ122">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK122">
         <v>36</v>
@@ -21492,31 +21492,31 @@
         <v>1</v>
       </c>
       <c r="AB123">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC123">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD123">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AE123">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AF123">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG123">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH123">
+        <v>8</v>
+      </c>
+      <c r="AI123">
+        <v>7</v>
+      </c>
+      <c r="AJ123">
         <v>12</v>
-      </c>
-      <c r="AI123">
-        <v>13</v>
-      </c>
-      <c r="AJ123">
-        <v>8</v>
       </c>
       <c r="AK123">
         <v>34</v>
@@ -21679,31 +21679,31 @@
         <v>1</v>
       </c>
       <c r="AB124">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC124">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AD124">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE124">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH124">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI124">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ124">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK124">
         <v>38</v>
@@ -21815,31 +21815,31 @@
         <v>1</v>
       </c>
       <c r="AB125">
+        <v>33</v>
+      </c>
+      <c r="AC125">
+        <v>8</v>
+      </c>
+      <c r="AD125">
+        <v>44</v>
+      </c>
+      <c r="AE125">
+        <v>48</v>
+      </c>
+      <c r="AF125">
         <v>13</v>
       </c>
-      <c r="AC125">
-        <v>17</v>
-      </c>
-      <c r="AD125">
-        <v>57</v>
-      </c>
-      <c r="AE125">
-        <v>52</v>
-      </c>
-      <c r="AF125">
+      <c r="AG125">
+        <v>11</v>
+      </c>
+      <c r="AH125">
+        <v>8</v>
+      </c>
+      <c r="AI125">
         <v>7</v>
       </c>
-      <c r="AG125">
+      <c r="AJ125">
         <v>9</v>
-      </c>
-      <c r="AH125">
-        <v>12</v>
-      </c>
-      <c r="AI125">
-        <v>13</v>
-      </c>
-      <c r="AJ125">
-        <v>11</v>
       </c>
       <c r="AK125">
         <v>35</v>
@@ -21969,31 +21969,31 @@
         <v>0</v>
       </c>
       <c r="AB126">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AC126">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD126">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AE126">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG126">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH126">
         <v>10</v>
       </c>
       <c r="AI126">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ126">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK126">
         <v>36</v>
@@ -22150,22 +22150,22 @@
         <v>1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC127">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AD127">
+        <v>36</v>
+      </c>
+      <c r="AE127">
         <v>49</v>
-      </c>
-      <c r="AE127">
-        <v>51</v>
       </c>
       <c r="AF127">
         <v>10</v>
       </c>
       <c r="AG127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH127">
         <v>10</v>
@@ -22337,31 +22337,31 @@
         <v>1</v>
       </c>
       <c r="AB128">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AC128">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD128">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE128">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AF128">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG128">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AH128">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI128">
         <v>10</v>
       </c>
       <c r="AJ128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK128">
         <v>36</v>
@@ -22524,31 +22524,31 @@
         <v>0</v>
       </c>
       <c r="AB129">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AC129">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD129">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE129">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG129">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH129">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI129">
         <v>10</v>
       </c>
       <c r="AJ129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK129">
         <v>41</v>
@@ -22711,28 +22711,28 @@
         <v>0</v>
       </c>
       <c r="AB130">
+        <v>49</v>
+      </c>
+      <c r="AC130">
+        <v>17</v>
+      </c>
+      <c r="AD130">
         <v>29</v>
       </c>
-      <c r="AC130">
-        <v>26</v>
-      </c>
-      <c r="AD130">
-        <v>42</v>
-      </c>
       <c r="AE130">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF130">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG130">
+        <v>13</v>
+      </c>
+      <c r="AH130">
         <v>7</v>
       </c>
-      <c r="AH130">
+      <c r="AI130">
         <v>13</v>
-      </c>
-      <c r="AI130">
-        <v>7</v>
       </c>
       <c r="AJ130">
         <v>10</v>
@@ -22892,31 +22892,31 @@
         <v>1</v>
       </c>
       <c r="AB131">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC131">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD131">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE131">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AF131">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG131">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH131">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI131">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ131">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK131">
         <v>27</v>
@@ -23079,31 +23079,31 @@
         <v>0</v>
       </c>
       <c r="AB132">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AC132">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD132">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AE132">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF132">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG132">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH132">
         <v>10</v>
       </c>
       <c r="AI132">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ132">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK132">
         <v>28</v>
@@ -23266,31 +23266,31 @@
         <v>1</v>
       </c>
       <c r="AB133">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AC133">
+        <v>23</v>
+      </c>
+      <c r="AD133">
         <v>32</v>
       </c>
-      <c r="AD133">
-        <v>45</v>
-      </c>
       <c r="AE133">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AF133">
         <v>10</v>
       </c>
       <c r="AG133">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI133">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ133">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK133">
         <v>41</v>
@@ -23447,31 +23447,31 @@
         <v>1</v>
       </c>
       <c r="AB134">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AC134">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AD134">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AE134">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AF134">
+        <v>16</v>
+      </c>
+      <c r="AG134">
+        <v>5</v>
+      </c>
+      <c r="AH134">
         <v>4</v>
       </c>
-      <c r="AG134">
-        <v>15</v>
-      </c>
-      <c r="AH134">
-        <v>16</v>
-      </c>
       <c r="AI134">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ134">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AK134">
         <v>33</v>
@@ -23631,31 +23631,31 @@
         <v>1</v>
       </c>
       <c r="AB135">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AC135">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AD135">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AE135">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF135">
+        <v>12</v>
+      </c>
+      <c r="AG135">
+        <v>13</v>
+      </c>
+      <c r="AH135">
         <v>8</v>
       </c>
-      <c r="AG135">
-        <v>7</v>
-      </c>
-      <c r="AH135">
-        <v>12</v>
-      </c>
       <c r="AI135">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AJ135">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK135">
         <v>27</v>
@@ -23815,31 +23815,31 @@
         <v>1</v>
       </c>
       <c r="AB136">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AC136">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD136">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE136">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF136">
+        <v>12</v>
+      </c>
+      <c r="AG136">
+        <v>11</v>
+      </c>
+      <c r="AH136">
         <v>8</v>
       </c>
-      <c r="AG136">
-        <v>9</v>
-      </c>
-      <c r="AH136">
-        <v>12</v>
-      </c>
       <c r="AI136">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ136">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK136">
         <v>29</v>
@@ -23999,31 +23999,31 @@
         <v>1</v>
       </c>
       <c r="AB137">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC137">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AD137">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE137">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF137">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG137">
+        <v>12</v>
+      </c>
+      <c r="AH137">
+        <v>6</v>
+      </c>
+      <c r="AI137">
         <v>8</v>
       </c>
-      <c r="AH137">
-        <v>14</v>
-      </c>
-      <c r="AI137">
-        <v>12</v>
-      </c>
       <c r="AJ137">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK137">
         <v>30</v>
@@ -24136,31 +24136,31 @@
         <v>1</v>
       </c>
       <c r="AB138">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="AC138">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD138">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE138">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF138">
+        <v>8</v>
+      </c>
+      <c r="AG138">
         <v>12</v>
       </c>
-      <c r="AG138">
-        <v>8</v>
-      </c>
       <c r="AH138">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI138">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ138">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK138">
         <v>40</v>
@@ -24320,31 +24320,31 @@
         <v>1</v>
       </c>
       <c r="AB139">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC139">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AD139">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AE139">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF139">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG139">
+        <v>9</v>
+      </c>
+      <c r="AH139">
         <v>11</v>
-      </c>
-      <c r="AH139">
-        <v>9</v>
       </c>
       <c r="AI139">
         <v>10</v>
       </c>
       <c r="AJ139">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK139">
         <v>28</v>
@@ -24471,28 +24471,28 @@
         <v>1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AC140">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD140">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AE140">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF140">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG140">
         <v>10</v>
       </c>
       <c r="AH140">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI140">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ140">
         <v>10</v>
@@ -24655,31 +24655,31 @@
         <v>1</v>
       </c>
       <c r="AB141">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AC141">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD141">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AE141">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF141">
+        <v>12</v>
+      </c>
+      <c r="AG141">
+        <v>12</v>
+      </c>
+      <c r="AH141">
+        <v>7</v>
+      </c>
+      <c r="AI141">
         <v>8</v>
       </c>
-      <c r="AG141">
-        <v>8</v>
-      </c>
-      <c r="AH141">
-        <v>13</v>
-      </c>
-      <c r="AI141">
+      <c r="AJ141">
         <v>12</v>
-      </c>
-      <c r="AJ141">
-        <v>8</v>
       </c>
       <c r="AK141">
         <v>43</v>
@@ -24842,28 +24842,28 @@
         <v>1</v>
       </c>
       <c r="AB142">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC142">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD142">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE142">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF142">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG142">
+        <v>11</v>
+      </c>
+      <c r="AH142">
+        <v>8</v>
+      </c>
+      <c r="AI142">
         <v>9</v>
-      </c>
-      <c r="AH142">
-        <v>12</v>
-      </c>
-      <c r="AI142">
-        <v>11</v>
       </c>
       <c r="AJ142">
         <v>10</v>
@@ -25029,31 +25029,31 @@
         <v>1</v>
       </c>
       <c r="AB143">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC143">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD143">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE143">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF143">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG143">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH143">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI143">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ143">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK143">
         <v>31</v>
@@ -25216,31 +25216,31 @@
         <v>1</v>
       </c>
       <c r="AB144">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AC144">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD144">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE144">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF144">
+        <v>8</v>
+      </c>
+      <c r="AG144">
         <v>12</v>
       </c>
-      <c r="AG144">
-        <v>8</v>
-      </c>
       <c r="AH144">
+        <v>7</v>
+      </c>
+      <c r="AI144">
+        <v>4</v>
+      </c>
+      <c r="AJ144">
         <v>13</v>
-      </c>
-      <c r="AI144">
-        <v>16</v>
-      </c>
-      <c r="AJ144">
-        <v>7</v>
       </c>
       <c r="AK144">
         <v>40</v>
@@ -25403,31 +25403,31 @@
         <v>1</v>
       </c>
       <c r="AB145">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC145">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD145">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE145">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF145">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG145">
         <v>10</v>
       </c>
       <c r="AH145">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI145">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK145">
         <v>28</v>
@@ -25590,31 +25590,31 @@
         <v>1</v>
       </c>
       <c r="AB146">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC146">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AD146">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE146">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AF146">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG146">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH146">
+        <v>9</v>
+      </c>
+      <c r="AI146">
+        <v>7</v>
+      </c>
+      <c r="AJ146">
         <v>11</v>
-      </c>
-      <c r="AI146">
-        <v>13</v>
-      </c>
-      <c r="AJ146">
-        <v>9</v>
       </c>
       <c r="AK146">
         <v>37</v>
@@ -25747,31 +25747,31 @@
         <v>1</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AC147">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD147">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AE147">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AF147">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG147">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH147">
         <v>10</v>
       </c>
       <c r="AI147">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ147">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK147">
         <v>45</v>
@@ -25901,31 +25901,31 @@
         <v>1</v>
       </c>
       <c r="AB148">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC148">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AD148">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AE148">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AF148">
+        <v>4</v>
+      </c>
+      <c r="AG148">
         <v>16</v>
       </c>
-      <c r="AG148">
+      <c r="AH148">
         <v>4</v>
       </c>
-      <c r="AH148">
-        <v>16</v>
-      </c>
       <c r="AI148">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ148">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK148">
         <v>30</v>
@@ -26038,31 +26038,31 @@
         <v>1</v>
       </c>
       <c r="AB149">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AC149">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD149">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AE149">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="AF149">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG149">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH149">
         <v>10</v>
       </c>
       <c r="AI149">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ149">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK149">
         <v>44</v>
@@ -26225,31 +26225,31 @@
         <v>1</v>
       </c>
       <c r="AB150">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AC150">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD150">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AE150">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AF150">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG150">
         <v>10</v>
       </c>
       <c r="AH150">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI150">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ150">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK150">
         <v>36</v>
@@ -26409,28 +26409,28 @@
         <v>1</v>
       </c>
       <c r="AB151">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC151">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD151">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE151">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF151">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG151">
+        <v>8</v>
+      </c>
+      <c r="AH151">
+        <v>6</v>
+      </c>
+      <c r="AI151">
         <v>12</v>
-      </c>
-      <c r="AH151">
-        <v>14</v>
-      </c>
-      <c r="AI151">
-        <v>8</v>
       </c>
       <c r="AJ151">
         <v>10</v>
@@ -26596,31 +26596,31 @@
         <v>1</v>
       </c>
       <c r="AB152">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AC152">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AD152">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE152">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AF152">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG152">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH152">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI152">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ152">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK152">
         <v>41</v>
@@ -26783,28 +26783,28 @@
         <v>1</v>
       </c>
       <c r="AB153">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC153">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD153">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE153">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF153">
         <v>10</v>
       </c>
       <c r="AG153">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH153">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI153">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ153">
         <v>10</v>
@@ -26970,31 +26970,31 @@
         <v>1</v>
       </c>
       <c r="AB154">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC154">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD154">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE154">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AF154">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG154">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH154">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI154">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ154">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK154">
         <v>43</v>
@@ -27127,31 +27127,31 @@
         <v>1</v>
       </c>
       <c r="AB155">
+        <v>30</v>
+      </c>
+      <c r="AC155">
         <v>10</v>
       </c>
-      <c r="AC155">
-        <v>19</v>
-      </c>
       <c r="AD155">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE155">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG155">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH155">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ155">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AK155">
         <v>37</v>
@@ -27314,31 +27314,31 @@
         <v>0</v>
       </c>
       <c r="AB156">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC156">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AD156">
+        <v>34</v>
+      </c>
+      <c r="AE156">
         <v>47</v>
       </c>
-      <c r="AE156">
-        <v>53</v>
-      </c>
       <c r="AF156">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AG156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH156">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI156">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ156">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK156">
         <v>36</v>
@@ -27451,31 +27451,31 @@
         <v>1</v>
       </c>
       <c r="AB157">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AC157">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AD157">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE157">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AF157">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG157">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AH157">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI157">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ157">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK157">
         <v>31</v>
@@ -27638,28 +27638,28 @@
         <v>1</v>
       </c>
       <c r="AB158">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AC158">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD158">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AE158">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AF158">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG158">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH158">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI158">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ158">
         <v>10</v>
@@ -27825,31 +27825,31 @@
         <v>1</v>
       </c>
       <c r="AB159">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AC159">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AD159">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE159">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF159">
         <v>10</v>
       </c>
       <c r="AG159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH159">
+        <v>12</v>
+      </c>
+      <c r="AI159">
         <v>8</v>
       </c>
-      <c r="AI159">
-        <v>12</v>
-      </c>
       <c r="AJ159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK159">
         <v>29</v>
@@ -27982,31 +27982,31 @@
         <v>1</v>
       </c>
       <c r="AB160">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC160">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD160">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AE160">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AF160">
+        <v>13</v>
+      </c>
+      <c r="AG160">
+        <v>13</v>
+      </c>
+      <c r="AH160">
         <v>7</v>
       </c>
-      <c r="AG160">
-        <v>7</v>
-      </c>
-      <c r="AH160">
-        <v>13</v>
-      </c>
       <c r="AI160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ160">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK160">
         <v>34</v>
@@ -28136,31 +28136,31 @@
         <v>0</v>
       </c>
       <c r="AB161">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC161">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD161">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE161">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF161">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG161">
+        <v>11</v>
+      </c>
+      <c r="AH161">
+        <v>4</v>
+      </c>
+      <c r="AI161">
+        <v>8</v>
+      </c>
+      <c r="AJ161">
         <v>9</v>
-      </c>
-      <c r="AH161">
-        <v>16</v>
-      </c>
-      <c r="AI161">
-        <v>12</v>
-      </c>
-      <c r="AJ161">
-        <v>11</v>
       </c>
       <c r="AK161">
         <v>35</v>
@@ -28293,31 +28293,31 @@
         <v>1</v>
       </c>
       <c r="AB162">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC162">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AD162">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AE162">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AF162">
+        <v>8</v>
+      </c>
+      <c r="AG162">
         <v>12</v>
       </c>
-      <c r="AG162">
+      <c r="AH162">
+        <v>5</v>
+      </c>
+      <c r="AI162">
         <v>8</v>
       </c>
-      <c r="AH162">
-        <v>15</v>
-      </c>
-      <c r="AI162">
-        <v>12</v>
-      </c>
       <c r="AJ162">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK162">
         <v>35</v>
@@ -28450,13 +28450,13 @@
         <v>1</v>
       </c>
       <c r="AB163">
+        <v>47</v>
+      </c>
+      <c r="AC163">
+        <v>23</v>
+      </c>
+      <c r="AD163">
         <v>27</v>
-      </c>
-      <c r="AC163">
-        <v>32</v>
-      </c>
-      <c r="AD163">
-        <v>40</v>
       </c>
       <c r="AE163">
         <v>50</v>
@@ -28465,16 +28465,16 @@
         <v>10</v>
       </c>
       <c r="AG163">
+        <v>14</v>
+      </c>
+      <c r="AH163">
         <v>6</v>
       </c>
-      <c r="AH163">
-        <v>14</v>
-      </c>
       <c r="AI163">
+        <v>7</v>
+      </c>
+      <c r="AJ163">
         <v>13</v>
-      </c>
-      <c r="AJ163">
-        <v>7</v>
       </c>
       <c r="AK163">
         <v>45</v>
@@ -28607,31 +28607,31 @@
         <v>1</v>
       </c>
       <c r="AB164">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC164">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD164">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AE164">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF164">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG164">
+        <v>14</v>
+      </c>
+      <c r="AH164">
         <v>6</v>
       </c>
-      <c r="AH164">
-        <v>14</v>
-      </c>
       <c r="AI164">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ164">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK164">
         <v>36</v>
@@ -28794,31 +28794,31 @@
         <v>0</v>
       </c>
       <c r="AB165">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC165">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD165">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AE165">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AF165">
+        <v>8</v>
+      </c>
+      <c r="AG165">
+        <v>9</v>
+      </c>
+      <c r="AH165">
+        <v>7</v>
+      </c>
+      <c r="AI165">
+        <v>5</v>
+      </c>
+      <c r="AJ165">
         <v>12</v>
-      </c>
-      <c r="AG165">
-        <v>11</v>
-      </c>
-      <c r="AH165">
-        <v>13</v>
-      </c>
-      <c r="AI165">
-        <v>15</v>
-      </c>
-      <c r="AJ165">
-        <v>8</v>
       </c>
       <c r="AK165">
         <v>33</v>
@@ -28975,31 +28975,31 @@
         <v>1</v>
       </c>
       <c r="AB166">
+        <v>51</v>
+      </c>
+      <c r="AC166">
+        <v>8</v>
+      </c>
+      <c r="AD166">
         <v>31</v>
       </c>
-      <c r="AC166">
-        <v>17</v>
-      </c>
-      <c r="AD166">
-        <v>44</v>
-      </c>
       <c r="AE166">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="AF166">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG166">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH166">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AI166">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ166">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK166">
         <v>30</v>
@@ -29162,16 +29162,16 @@
         <v>1</v>
       </c>
       <c r="AB167">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC167">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD167">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AE167">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF167">
         <v>10</v>
@@ -29180,13 +29180,13 @@
         <v>10</v>
       </c>
       <c r="AH167">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI167">
         <v>10</v>
       </c>
       <c r="AJ167">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK167">
         <v>35</v>
@@ -29319,31 +29319,31 @@
         <v>1</v>
       </c>
       <c r="AB168">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC168">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD168">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE168">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AF168">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG168">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH168">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI168">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ168">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK168">
         <v>38</v>
@@ -29470,28 +29470,28 @@
         <v>1</v>
       </c>
       <c r="AB169">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC169">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AD169">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AE169">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF169">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG169">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH169">
         <v>10</v>
       </c>
       <c r="AI169">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ169">
         <v>10</v>
@@ -29627,31 +29627,31 @@
         <v>1</v>
       </c>
       <c r="AB170">
+        <v>25</v>
+      </c>
+      <c r="AC170">
+        <v>3</v>
+      </c>
+      <c r="AD170">
+        <v>23</v>
+      </c>
+      <c r="AE170">
+        <v>46</v>
+      </c>
+      <c r="AF170">
         <v>5</v>
       </c>
-      <c r="AC170">
+      <c r="AG170">
         <v>12</v>
       </c>
-      <c r="AD170">
-        <v>36</v>
-      </c>
-      <c r="AE170">
-        <v>54</v>
-      </c>
-      <c r="AF170">
-        <v>15</v>
-      </c>
-      <c r="AG170">
+      <c r="AH170">
         <v>8</v>
       </c>
-      <c r="AH170">
+      <c r="AI170">
+        <v>9</v>
+      </c>
+      <c r="AJ170">
         <v>12</v>
-      </c>
-      <c r="AI170">
-        <v>11</v>
-      </c>
-      <c r="AJ170">
-        <v>8</v>
       </c>
       <c r="AK170">
         <v>42</v>
@@ -29814,31 +29814,31 @@
         <v>1</v>
       </c>
       <c r="AB171">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AC171">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AD171">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AE171">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AF171">
+        <v>14</v>
+      </c>
+      <c r="AG171">
+        <v>14</v>
+      </c>
+      <c r="AH171">
+        <v>11</v>
+      </c>
+      <c r="AI171">
+        <v>9</v>
+      </c>
+      <c r="AJ171">
         <v>6</v>
-      </c>
-      <c r="AG171">
-        <v>6</v>
-      </c>
-      <c r="AH171">
-        <v>9</v>
-      </c>
-      <c r="AI171">
-        <v>11</v>
-      </c>
-      <c r="AJ171">
-        <v>14</v>
       </c>
       <c r="AK171">
         <v>39</v>
@@ -30001,31 +30001,31 @@
         <v>1</v>
       </c>
       <c r="AB172">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AC172">
+        <v>23</v>
+      </c>
+      <c r="AD172">
         <v>32</v>
       </c>
-      <c r="AD172">
-        <v>45</v>
-      </c>
       <c r="AE172">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF172">
+        <v>8</v>
+      </c>
+      <c r="AG172">
+        <v>13</v>
+      </c>
+      <c r="AH172">
+        <v>8</v>
+      </c>
+      <c r="AI172">
+        <v>8</v>
+      </c>
+      <c r="AJ172">
         <v>12</v>
-      </c>
-      <c r="AG172">
-        <v>7</v>
-      </c>
-      <c r="AH172">
-        <v>12</v>
-      </c>
-      <c r="AI172">
-        <v>12</v>
-      </c>
-      <c r="AJ172">
-        <v>8</v>
       </c>
       <c r="AK172">
         <v>22</v>
@@ -30188,31 +30188,31 @@
         <v>1</v>
       </c>
       <c r="AB173">
+        <v>48</v>
+      </c>
+      <c r="AC173">
         <v>28</v>
       </c>
-      <c r="AC173">
-        <v>37</v>
-      </c>
       <c r="AD173">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AE173">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF173">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG173">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH173">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI173">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ173">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK173">
         <v>36</v>
@@ -30375,28 +30375,28 @@
         <v>1</v>
       </c>
       <c r="AB174">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC174">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD174">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AE174">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AF174">
+        <v>13</v>
+      </c>
+      <c r="AG174">
+        <v>8</v>
+      </c>
+      <c r="AH174">
         <v>7</v>
       </c>
-      <c r="AG174">
-        <v>12</v>
-      </c>
-      <c r="AH174">
-        <v>13</v>
-      </c>
       <c r="AI174">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ174">
         <v>10</v>
@@ -30562,31 +30562,31 @@
         <v>1</v>
       </c>
       <c r="AB175">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AC175">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AD175">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AE175">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AF175">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AG175">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AH175">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI175">
         <v>10</v>
       </c>
       <c r="AJ175">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK175">
         <v>19</v>
@@ -30669,31 +30669,31 @@
         <v>1</v>
       </c>
       <c r="AB176">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AC176">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD176">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AE176">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF176">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG176">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH176">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AI176">
         <v>10</v>
       </c>
       <c r="AJ176">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK176">
         <v>38</v>
@@ -30856,31 +30856,31 @@
         <v>1</v>
       </c>
       <c r="AB177">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AC177">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AD177">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AE177">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF177">
+        <v>7</v>
+      </c>
+      <c r="AG177">
+        <v>8</v>
+      </c>
+      <c r="AH177">
+        <v>7</v>
+      </c>
+      <c r="AI177">
+        <v>9</v>
+      </c>
+      <c r="AJ177">
         <v>13</v>
-      </c>
-      <c r="AG177">
-        <v>12</v>
-      </c>
-      <c r="AH177">
-        <v>13</v>
-      </c>
-      <c r="AI177">
-        <v>11</v>
-      </c>
-      <c r="AJ177">
-        <v>7</v>
       </c>
       <c r="AK177">
         <v>37</v>
@@ -31040,16 +31040,16 @@
         <v>1</v>
       </c>
       <c r="AB178">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AC178">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD178">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE178">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF178">
         <v>10</v>
@@ -31058,13 +31058,13 @@
         <v>10</v>
       </c>
       <c r="AH178">
+        <v>8</v>
+      </c>
+      <c r="AI178">
+        <v>4</v>
+      </c>
+      <c r="AJ178">
         <v>12</v>
-      </c>
-      <c r="AI178">
-        <v>16</v>
-      </c>
-      <c r="AJ178">
-        <v>8</v>
       </c>
       <c r="AK178">
         <v>36</v>
@@ -31227,31 +31227,31 @@
         <v>1</v>
       </c>
       <c r="AB179">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC179">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD179">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE179">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="AF179">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AG179">
+        <v>8</v>
+      </c>
+      <c r="AH179">
+        <v>6</v>
+      </c>
+      <c r="AI179">
         <v>12</v>
       </c>
-      <c r="AH179">
-        <v>14</v>
-      </c>
-      <c r="AI179">
-        <v>8</v>
-      </c>
       <c r="AJ179">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AK179">
         <v>26</v>
@@ -31414,31 +31414,31 @@
         <v>1</v>
       </c>
       <c r="AB180">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC180">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AD180">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE180">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AF180">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG180">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH180">
         <v>10</v>
       </c>
       <c r="AI180">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ180">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AK180">
         <v>40</v>
@@ -31601,31 +31601,31 @@
         <v>1</v>
       </c>
       <c r="AB181">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AC181">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD181">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE181">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AF181">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG181">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH181">
         <v>10</v>
       </c>
       <c r="AI181">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ181">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK181">
         <v>33</v>
@@ -31788,31 +31788,31 @@
         <v>1</v>
       </c>
       <c r="AB182">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC182">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AD182">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AE182">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AF182">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG182">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH182">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AI182">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ182">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK182">
         <v>33</v>
@@ -31975,16 +31975,16 @@
         <v>1</v>
       </c>
       <c r="AB183">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AC183">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AD183">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AE183">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF183">
         <v>10</v>
@@ -31993,13 +31993,13 @@
         <v>10</v>
       </c>
       <c r="AH183">
+        <v>8</v>
+      </c>
+      <c r="AI183">
         <v>12</v>
       </c>
-      <c r="AI183">
+      <c r="AJ183">
         <v>8</v>
-      </c>
-      <c r="AJ183">
-        <v>12</v>
       </c>
       <c r="AK183">
         <v>27</v>
@@ -32162,31 +32162,31 @@
         <v>1</v>
       </c>
       <c r="AB184">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AC184">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD184">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AE184">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AF184">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG184">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH184">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI184">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AJ184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK184">
         <v>41</v>
@@ -32349,31 +32349,31 @@
         <v>1</v>
       </c>
       <c r="AB185">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AC185">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD185">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE185">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AF185">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG185">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH185">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI185">
         <v>10</v>
       </c>
       <c r="AJ185">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK185">
         <v>30</v>
@@ -32536,28 +32536,28 @@
         <v>1</v>
       </c>
       <c r="AB186">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC186">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD186">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE186">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AF186">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AG186">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH186">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AI186">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ186">
         <v>10</v>
@@ -32669,19 +32669,19 @@
         <v>0</v>
       </c>
       <c r="AB187">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AC187">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD187">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AE187">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AF187">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG187">
         <v>10</v>
@@ -32690,10 +32690,10 @@
         <v>10</v>
       </c>
       <c r="AI187">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ187">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK187">
         <v>36</v>
